--- a/src/BulbassaurQT6-ETL/sistema-ferramentas-RPA-desktop/notebooks/df_volume_7.xlsx
+++ b/src/BulbassaurQT6-ETL/sistema-ferramentas-RPA-desktop/notebooks/df_volume_7.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A68"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -409,342 +409,57 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>LT 230 kV Alegrete 2 - Livramento 2 e LT 230 kV Bagé 2 – Livramento 2</v>
+        <v xml:space="preserve"> Lt 440 Kv Ilha Solteira – Ilha Solteira 2 C1 E C2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>LT 230 kV Atlântida 2 - Gravataí 3 e LT 230 kV Atlântida 2 - Osório 2</v>
+        <v xml:space="preserve"> Lt 230 Kv Anastácio – Corumbá 2 C1 E C2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>LT 230 kV Cachoeirinha 3 – Cidade Industrial e LT 230 kV Cachoeirinha 3 – Canoas 2</v>
+        <v xml:space="preserve"> Lt 230 Kv Campo Grande 2 – Paraíso 2 C1 E</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>LT 230 kV Cachoeirinha 3 – Cidade Industrial e LT 230 kV Canoas 2 – Cidade Industrial</v>
+        <v xml:space="preserve"> Lt 230 Kv Chapadão – Inocência C1 E C2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>LT 230 kV Cachoeirinha 3 – Gravataí 2 C1 e C2</v>
+        <v xml:space="preserve"> Lt 230 Kv Ilha Solteira 2 – Inocência C1 E C2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>LT 230 kV Camaquã 3 - N. Santa Rita e LT 230 kV N. Santa Rita - Porto Alegre 9</v>
+        <v xml:space="preserve"> Lt 230 Kv Ivinhema 2 – Nova Porto Primavera C1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>LT 230 kV Campo Bom – Caxias C1 e C2</v>
+        <v xml:space="preserve"> Lt 230 Kv Campo Grande 2 – Paraíso 2 C1 E Lt</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>LT 230 kV Campo Bom – Gravataí 2 C1 e C2</v>
+        <v xml:space="preserve"> Lt 138 Kv Anastácio  Aquidauana C1 E C2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>LT 230 kV N. Santa Rita - Candelária 2 e LT 230 kV Lajeado 2 - Nova Santa Rita</v>
+        <v>Página 29</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>LT 230 kV N. Santa Rita - Candelária 2 e LT 230 kV Candelária 2 - UHE Itaúba</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>LT 230 kV Cidade Industrial - N. Santa Rita C1 e LT 230 kV Cidade Industrial - N. Santa Rita C2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>LT 230 kV Cidade Industrial - N. Santa Rita C1 e LT 230 kV Cidade Industrial - Polo Petroquímico C1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>LT 230 kV Cidade Industrial - N. Santa Rita C3 e LT 230 kV Cidade Industrial - Venâncio Aires</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>LT 230 kV Cidade Industrial - Polo Petroquímico e LT 230 kV Polo Petroquímico - N. Santa Rita</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>LT 230 kV Campo Bom – Gravataí 2 C1 e LT 230 kV Campo Bom – Gravataí 2 C2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>LT 230 kV Caxias - Caxias 6 e LT 230 kV Caxias - Nova Petrópolis 2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>LT 230 kV Caxias – Farroupilha C1 e LT 230 kV Caxias – Farroupilha C2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>LT 230 kV Charqueadas 3 – Cidade Industrial e LT 230 kV Charqueadas – Scharlau 2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>LT 230 kV Charqueadas 3 – Santa Cruz 1 e LT 230kV Santa Cruz 1 – UHE Itaúba</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>LT 230 kV Charqueadas – Scharlau 2 e LT 230 kV Farroupilha – Scharlau 2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>LT 230 kV Charqueadas 3 – Cidade Industrial e LT 230 kV Cidade Industrial – Guaíba 2</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>LT 230 kV Canoas 1 - Porto Alegre 9 e LT 230 kV Cidade Industrial – Porto Alegre 9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>LT 230 kV Cidade Industrial - Canoas 1 e LT 230 kV Cidade Industrial – Porto Alegre 9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>LT 230 kV Cidade Industrial - Gravataí 2 C2 e LT 230 kV Canoas 2 - Cidade Industrial</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>LT 230 kV Cidade Industrial - Gravataí 2 C3 e LT 230 kV Cidade Industrial – Gravataí 2 C4</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>LT 230 kV Cidade Industrial - Guaíba 2 e LT 230 kV Charqueadas - Cidade Industrial</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>LT 230 kV UHE Dona Francisca - Santa Maria 3 C1 e LT 230 kV UHE Dona Francisca - UHE Itaúba C1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>LT 230 kV Farroupilha – Scharlau 2 e LT 230 kV Farroupilha - Garibaldi 1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>LT 230 kV Guaíba 2 - Guaíba 3 C1 e C1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>LT 230 kV Gravataí 2 - Gravataí 3 C1 e LT 230 kV Gravataí 2 - Gravataí 3 C2</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v>LT 230 kV Gravataí 2 - Gravataí 3 C2 e LT 230 kV Gravataí 3 - Osório 2 (Ramal Fibraplac)</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>LT 230 kV Gravataí 2 – Porto Alegre 6 C1 e LT 230 kV Gravataí 2 – Porto Alegre 6 C2</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>LT 230 kV Gravataí 2 - Jardim Botânico e LT 230 kV Gravataí 2 - Viamão 3</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>LT 230 kV Gravataí 2 - Jardim Botânico e LT 230 kV Porto Alegre 6 – Viamão 3</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>LT 230 kV Gravataí 2 - Jardim Botânico e LT 230 kV Porto Alegre 4 - Porto Alegre 6</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>LT 230 kV Jardim Botânico - Porto Alegre 10 e LT 230 kV Porto Alegre 4 - Porto Alegre 6</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>LT 230 kV Lajeado 2 - N. Santa Rita e LT 230 kV Lajeado 2 - UHE Passo Real</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>LT 230 kV Livramento 3 – Santa Maria 3 C1 e C2</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="str">
-        <v>LT 230 kV Lajeado 2 - UHE Passo Real e LT 230 kV Venâncio Aires – UHE Passo Real</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="str">
-        <v>LT 230 kV N. Santa Rita - Scharlau 2 C1 e LT 230 kV N. Santa Rita - Scharlau 2 C2</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="str">
-        <v>LT 230 kV Porto Alegre 4 - Porto Alegre 6 e LT 230 kV Porto Alegre 4 - Porto Alegre 10</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="str">
-        <v>LT 230 kV Passo Fundo - Santa Marta e LT 230 kV Tapera 2 - Santa Marta</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="str">
-        <v>LT 230 kV Polo Petroquímico - UHE Itaúba e LT 230 kV N. Santa Rita - Polo Petroquímico</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="str">
-        <v>LT 230 kV Santa Rosa 1 - Santo Ângelo 2 e LT 230 kV Santo Ângelo - Santo Ângelo 2</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="str">
-        <v>LT 230 kV Tapera 2 - UHE Passo Real e LT 230 kV UHE Itaúba - UHE Passo Real</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="str">
-        <v>LT 230 kV Farroupilha - Caxias 5 e LT 230 kV Lajeado Grande – Caxias 5</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="str">
-        <v>LT 230 kV Garibaldi 1 – Vinhedos e LT 230 kV Monte Claro – Vinhedos</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="str">
-        <v>LT 230 kV Garibaldi 1 – Vinhedos e LT 230 kV Farroupilha – Garibaldi 1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="str">
-        <v>LT 230 kV Porto Alegre 13 – Restinga e LT 230 kV Porto Alegre 6 - Porto Alegre 13</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="str">
-        <v>LT 230 kV Vila Maria – Nova Prata 2 C2 e LT 230 kV Passo Fundo - Vila Maria C2</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="str">
-        <v>LT 230 kV Vila Maria – Nova Prata 2 C1 e LT 230 kV Passo Fundo - Vila Maria C1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="str">
-        <v>LT 230 kV Maçambará 3 - Santo Ângelo C1 e LT 230 kV Maçambará 3 - Maçambará C1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="str">
-        <v>LT 230 kV Maçambará 3 - Santo Ângelo C2 e LT 230 kV Maçambará 3 - Maçambará C1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="str">
-        <v>LT 230 kV LT 230 kV Maçambará 3 - Maçambará C2 e LT 230 kV Maçambará 3 - Santo Ângelo C1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="str">
-        <v>LT 230 kV LT 230 kV Maçambará 3 - Maçambará C2 e LT 230 kV Maçambará 3 - Santo Ângelo C2</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="str">
-        <v>LT 230 kV Monte Claro – Nova Prata 2 C1 e LT 230kV Nova Prata 2 – Vila Maria 1 C1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="str">
-        <v>LT 230 Charqueadas 3 – Charqueadas e LT 230 Charqueadas 3 – Cidade Industrial</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="str">
-        <v>LT 230 kV Cachoeirinha 3 – Gravataí 2 C1 e C2</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="str">
-        <v>LT 230 kV Charqueadas 3 – Charqueadas e LT 230kV Charqueadas 3 – Cidade Industrial</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="str">
-        <v>LT 230 Charqueadas 3 – Santa Cruz 1 e LT 230 kV Charqueadas 3 – Charqueadas</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="str">
-        <v>LT 230 kV Caxias Norte – Farroupilha C2 e LT 230 kV Caxias Norte – Caxias do Sul 2</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="str">
-        <v>LT 230 kV Caxias Norte – Farroupilha C1 e LT 230 kV Caxias Norte – Caxias do Sul 5</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="str">
-        <v>LT 230 Charqueadas 3 – Charqueadas e LT 230 Charqueadas 3 – Cidade Industrial</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="str">
-        <v>LT 230 Charqueadas 3 – Santa Cruz 1 e LT 230 kV Charqueadas 3 – Charqueadas</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="str">
-        <v>LT 230 kV Caxias Norte – Caxias do Sul 5 e LT 230 kV Lajeado Grande – Caxias do Sul 5</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="str">
-        <v>LT 230 kV Caxias do Norte – Caxias do Sul 5 e LT 230 kV Caxias Norte – Farroupilha C1</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="str">
-        <v>LT 230 kV Caxias do Sul 2 – Caxias Norte e LT 230 kV Caxias do Sul 5 – Caxias Norte</v>
+        <v xml:space="preserve"> Lt 230 Kv Guaíra – Iguatemi 2 C1 E Lt 230 Kv</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A68"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A11"/>
   </ignoredErrors>
 </worksheet>
 </file>